--- a/excel/contas.xlsx
+++ b/excel/contas.xlsx
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7">
@@ -1014,7 +1014,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16">
@@ -1508,7 +1508,7 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44">
@@ -2724,7 +2724,7 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61">
@@ -3294,7 +3294,7 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="76">
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89">
@@ -4206,7 +4206,7 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="100">
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="117">
@@ -6942,7 +6942,7 @@
         </is>
       </c>
       <c r="J171" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="172">
@@ -7968,7 +7968,7 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="199">
@@ -9526,7 +9526,7 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="240">
@@ -9716,7 +9716,7 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="245">
@@ -10628,7 +10628,7 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="269">
@@ -11274,7 +11274,7 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="286">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="305">
@@ -13250,7 +13250,7 @@
         </is>
       </c>
       <c r="J337" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="338">
@@ -13364,7 +13364,7 @@
         </is>
       </c>
       <c r="J340" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="341">
@@ -13516,7 +13516,7 @@
         </is>
       </c>
       <c r="J344" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="345">
@@ -13630,7 +13630,7 @@
         </is>
       </c>
       <c r="J347" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="348">
@@ -14770,7 +14770,7 @@
         </is>
       </c>
       <c r="J377" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="378">
@@ -15644,7 +15644,7 @@
         </is>
       </c>
       <c r="J400" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="401">
@@ -15948,7 +15948,7 @@
         </is>
       </c>
       <c r="J408" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="409">
@@ -17392,7 +17392,7 @@
         </is>
       </c>
       <c r="J446" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="447">
@@ -21040,7 +21040,7 @@
         </is>
       </c>
       <c r="J542" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="543">
@@ -23548,7 +23548,7 @@
         </is>
       </c>
       <c r="J608" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="609">
@@ -25372,7 +25372,7 @@
         </is>
       </c>
       <c r="J656" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="657">
@@ -25752,7 +25752,7 @@
         </is>
       </c>
       <c r="J666" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="667">
@@ -30616,7 +30616,7 @@
         </is>
       </c>
       <c r="J794" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="795">
@@ -31946,7 +31946,7 @@
         </is>
       </c>
       <c r="J829" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="830">
@@ -33010,7 +33010,7 @@
         </is>
       </c>
       <c r="J857" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="858">
@@ -33162,7 +33162,7 @@
         </is>
       </c>
       <c r="J861" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="862">
@@ -34188,7 +34188,7 @@
         </is>
       </c>
       <c r="J888" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="889">
@@ -35328,7 +35328,7 @@
         </is>
       </c>
       <c r="J918" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="919">
@@ -35594,7 +35594,7 @@
         </is>
       </c>
       <c r="J925" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="926">
